--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Strauch/Alexander_Strauch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Strauch/Alexander_Strauch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexander Strauch est un zoologiste de nationalité allemande[1], sujet de l'Empire russe, né le 1er mars 1832 à Saint-Pétersbourg et mort le 14 août 1893 à Wiesbaden en Allemagne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexander Strauch est un zoologiste de nationalité allemande, sujet de l'Empire russe, né le 1er mars 1832 à Saint-Pétersbourg et mort le 14 août 1893 à Wiesbaden en Allemagne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Strauch a fait ses études à la fameuse Sankt Petri Schule de Saint-Pétersbourg. Il devient conservateur du Muséum zoologique de l'Académie impériale des sciences de Saint-Pétersbourg. Ce muséum possède notamment la première collection de Albertus Seba (1665-1736), que Pierre Ier le Grand (1689–1721) a achetée en 1717 ainsi qu'une partie de la seconde collection de Seba acquise en 1752.
 Strauch contribue à grandement enrichir les collections existantes, notamment grâce aux diverses expéditions envoyées en Asie, en Sibérie et vers d'autres destinations mais aussi grâce aux échanges qu'il fait avec d'autres muséums.
